--- a/GroceryApplicationProject/src/main/resources/TestData.xlsx
+++ b/GroceryApplicationProject/src/main/resources/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\eclipse-workspace\GroceryApplicationProject\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\git\Seleniumrepo\GroceryApplicationProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7AE037-92AE-4D06-8E42-56B05AE448B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60678C5E-1243-4AA0-BAF5-2BFDAF8D8553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
     <t>admin</t>
   </si>
   <si>
     <t>Admins</t>
+  </si>
+  <si>
+    <t>adminproject</t>
   </si>
 </sst>
 </file>
@@ -351,10 +354,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -368,8 +375,8 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>12345</v>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -384,8 +391,8 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>12345</v>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/GroceryApplicationProject/src/main/resources/TestData.xlsx
+++ b/GroceryApplicationProject/src/main/resources/TestData.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prave\git\Seleniumrepo\GroceryApplicationProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60678C5E-1243-4AA0-BAF5-2BFDAF8D8553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F8F770-421E-43B4-8613-1FEAACCBBBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="AdminUser" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageNews" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>admin</t>
   </si>
@@ -34,19 +36,34 @@
   </si>
   <si>
     <t>adminproject</t>
+  </si>
+  <si>
+    <t>Praveena</t>
+  </si>
+  <si>
+    <t>Today is Holiday</t>
+  </si>
+  <si>
+    <t>Rainy Day</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -69,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,7 +371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -398,4 +416,50 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B781A618-AFBC-48A3-8D4B-5C16A8156B95}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0D474B-02B5-4992-9363-8C90D282D41B}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>